--- a/commerce_estate/NF_Moscow/data/Supply.xlsx
+++ b/commerce_estate/NF_Moscow/data/Supply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4664,12 +4664,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35317</t>
+          <t>https://kf.expert/office/pomeschenie/bc-narvskaya-os35691</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Офисное помещение 143 м², 12 этаж - DM Tower</t>
+          <t>Продаётся офис 6 409 м², 1-7 этаж - Нарвская</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Северо-Запад, Войковский, Нарвская улица, 6, стр. 2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4688,14 +4688,14 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>37.625712</v>
+        <v>37.507502</v>
       </c>
       <c r="G89" t="n">
-        <v>55.695313</v>
+        <v>55.833779</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>34368200 RUB</t>
+          <t>999804000 RUB</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4712,12 +4712,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35319</t>
+          <t>https://kf.expert/office/pomeschenie/lica-os36064</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Офисное помещение 126 м², 12 этаж - DM Tower</t>
+          <t>Офис 96 м², 4 этаж - Лица</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Авиаконструктора Сухого улица, 2, корп. 2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4736,14 +4736,14 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>37.625712</v>
+        <v>37.542231</v>
       </c>
       <c r="G90" t="n">
-        <v>55.695313</v>
+        <v>55.786217</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>30817200 RUB</t>
+          <t>29040000 RUB</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4760,12 +4760,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35320</t>
+          <t>https://kf.expert/office/pomeschenie/lica-os36065</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Продаётся офис 101 м², 3 этаж - DM Tower</t>
+          <t>Продажа офиса 520 м², 1 этаж - Лица</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Авиаконструктора Сухого улица, 2, корп. 2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4784,14 +4784,14 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>37.625712</v>
+        <v>37.542231</v>
       </c>
       <c r="G91" t="n">
-        <v>55.695313</v>
+        <v>55.786217</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>21513000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4808,12 +4808,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35321</t>
+          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os36123</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Продажа офиса 131 м², 3 этаж - DM Tower</t>
+          <t>Офис 3 767 м², 3 этаж - Верейская Плаза IV</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4832,14 +4832,14 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>37.625712</v>
+        <v>37.438617</v>
       </c>
       <c r="G92" t="n">
-        <v>55.695313</v>
+        <v>55.709772</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>25662000 RUB</t>
+          <t>1130100000 RUB</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4856,12 +4856,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35323</t>
+          <t>https://kf.expert/office/pomeschenie/gospitalnaya-14-os36189</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Офисное помещение 131 м², 4 этаж - DM Tower</t>
+          <t>Продаётся офис 1 676 м², -2-3 этаж - Госпитальная, д. 14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Восток, Басманный, ул. Госпитальная, д. 14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4880,14 +4880,14 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>37.625712</v>
+        <v>37.695886</v>
       </c>
       <c r="G93" t="n">
-        <v>55.695313</v>
+        <v>55.767189</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>25925200 RUB</t>
+          <t>500000000 RUB</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4904,12 +4904,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35324</t>
+          <t>https://kf.expert/office/pomeschenie/poluyaroslavskij-b-pereulok-8-os36878</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Продаётся офис 242 м², 7 этаж - DM Tower</t>
+          <t>Продажа офиса 2 626 м², -1-6 этаж - Большой Полуярославский пер., 8</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Басманный (ТТК Восток), Таганский, Полуярославский Б. переулок, 8</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4928,14 +4928,14 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>37.625712</v>
+        <v>37.662678</v>
       </c>
       <c r="G94" t="n">
-        <v>55.695313</v>
+        <v>55.752262</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>47772500 RUB</t>
+          <t>715000000 RUB</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4952,12 +4952,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35474</t>
+          <t>https://kf.expert/office/pomeschenie/salyut-os36926</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Офис 101 м², 4 этаж - DM Tower</t>
+          <t>Продаётся офис 9 818 м², 1-6 этаж - Салют</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Тверской-Новослободский (ТТК Север), Тверской, Сущевская ул., 27, Москва</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4976,14 +4976,14 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>37.625712</v>
+        <v>37.601193</v>
       </c>
       <c r="G95" t="n">
-        <v>55.695313</v>
+        <v>55.783331</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>20604000 RUB</t>
+          <t>1550000000 RUB</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35481</t>
+          <t>https://kf.expert/office/pomeschenie/solyanka-ulitsa-d-13-3-str-1-os36980</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Офис 102 м², 12 этаж - DM Tower</t>
+          <t>Продаётся офис 2 638 м², -1-4 этаж - Солянка улица, д. 13/3 стр. 1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Таганский (ТТК Восток), Таганский, Солянка улица, 13, стр. 1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5024,14 +5024,14 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>37.625712</v>
+        <v>37.641863</v>
       </c>
       <c r="G96" t="n">
-        <v>55.695313</v>
+        <v>55.751266</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>25010000 RUB</t>
+          <t>600000000 RUB</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5048,12 +5048,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35482</t>
+          <t>https://kf.expert/office/pomeschenie/fili-grad-zhk-os37043</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Продажа офиса 244 м², 9 этаж - DM Tower</t>
+          <t>Офисное помещение 3 200 м², 1-3 этаж - Фили Град ЖК</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Запад, Филёвский Парк, Береговой проезд, 5, стр. 1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5072,14 +5072,14 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>37.625712</v>
+        <v>37.507446</v>
       </c>
       <c r="G97" t="n">
-        <v>55.695313</v>
+        <v>55.756935</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>50020000 RUB</t>
+          <t>640000000 RUB</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5096,12 +5096,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35483</t>
+          <t>https://kf.expert/office/pomeschenie/delovoj-kvartal-park-legend-b+-os37377</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Продажа офиса 132 м², 9 этаж - DM Tower</t>
+          <t>Продаётся офис 1 730 м², 7 этаж - Парк Легенд В</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5120,14 +5120,14 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>37.625712</v>
+        <v>37.634568</v>
       </c>
       <c r="G98" t="n">
-        <v>55.695313</v>
+        <v>55.703794</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>28995600 RUB</t>
+          <t>519000000 RUB</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5144,12 +5144,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35535</t>
+          <t>https://kf.expert/office/pomeschenie/delovoj-kvartar-park-legend-a-os37383</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Продажа офиса 135 м², 3 этаж - DM Tower</t>
+          <t>Продаётся офис 22 022 м², 4-18 этаж - Парк Легенд А</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Тульский (ТТК Юг), Даниловский, ул. Автозаводская, д. 23, с. 120</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5168,14 +5168,14 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>37.625712</v>
+        <v>37.6448</v>
       </c>
       <c r="G99" t="n">
-        <v>55.695313</v>
+        <v>55.701521</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>29970000 RUB</t>
+          <t>7700000000 RUB</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5192,12 +5192,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35537</t>
+          <t>https://kf.expert/office/pomeschenie/dom-na-davydkovskoj-os37492</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Продаётся офис 131 м², 7 этаж - DM Tower</t>
+          <t>Офисное помещение 810 м², -1-1 этаж - Дом на Давыдковской</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>ЧТК Запад, Фили-Давыдково, ул. Давыдковская, д. 16</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5216,14 +5216,14 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>37.625712</v>
+        <v>37.46564</v>
       </c>
       <c r="G100" t="n">
-        <v>55.695313</v>
+        <v>55.720986</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>27899200 RUB</t>
+          <t>145800000 RUB</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5240,12 +5240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os35538</t>
+          <t>https://kf.expert/office/pomeschenie/bashnya-4-park-legend-klass-v+-os37640</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Офисное помещение 241 м², 3 этаж - DM Tower</t>
+          <t>Офис 12 500 м², 7-13 этаж - Парк Легенд В</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5264,14 +5264,14 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>37.625712</v>
+        <v>37.633868</v>
       </c>
       <c r="G101" t="n">
-        <v>55.695313</v>
+        <v>55.689689</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>49949100 RUB</t>
+          <t>3500000000 RUB</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5288,12 +5288,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bc-narvskaya-os35691</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os37744</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Продаётся офис 6 409 м², 1-7 этаж - Нарвская</t>
+          <t>Офис 265 м², 3 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Войковский, Нарвская улица, 6, стр. 2</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5312,14 +5312,14 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>37.507502</v>
+        <v>37.524938</v>
       </c>
       <c r="G102" t="n">
-        <v>55.833779</v>
+        <v>55.795368</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>999804000 RUB</t>
+          <t>74721593 RUB</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5336,12 +5336,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/lica-os36064</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os37808</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Офис 96 м², 4 этаж - Лица</t>
+          <t>Продажа офиса 2 242 м², 8 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Авиаконструктора Сухого улица, 2, корп. 2</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5360,14 +5360,14 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>37.542231</v>
+        <v>37.530708</v>
       </c>
       <c r="G103" t="n">
-        <v>55.786217</v>
+        <v>55.755616</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>29040000 RUB</t>
+          <t>1322809500 RUB</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5384,12 +5384,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/lica-os36065</t>
+          <t>https://kf.expert/office/pomeschenie/federatsiya-bashnya-vostok-os37826</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Продажа офиса 520 м², 1 этаж - Лица</t>
+          <t>Продажа офиса 2 181 м², 95 этаж - Федерация</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Авиаконструктора Сухого улица, 2, корп. 2</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5408,14 +5408,14 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>37.542231</v>
+        <v>37.537106</v>
       </c>
       <c r="G104" t="n">
-        <v>55.786217</v>
+        <v>55.749938</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2600000634 RUB</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5432,12 +5432,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os36123</t>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38127</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Офис 3 767 м², 3 этаж - Верейская Плаза IV</t>
+          <t>Продажа офиса 561 м², 35 этаж - Федерация</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5456,14 +5456,14 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37.438617</v>
+        <v>37.537106</v>
       </c>
       <c r="G105" t="n">
-        <v>55.709772</v>
+        <v>55.749938</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1130100000 RUB</t>
+          <t>375870000 RUB</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5480,12 +5480,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/gospitalnaya-14-os36189</t>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38128</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Продаётся офис 1 676 м², -2-3 этаж - Госпитальная, д. 14</t>
+          <t>Офисное помещение 994 м², 30 этаж - Федерация</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ЧТК Восток, Басманный, ул. Госпитальная, д. 14</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5504,14 +5504,14 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>37.695886</v>
+        <v>37.537106</v>
       </c>
       <c r="G106" t="n">
-        <v>55.767189</v>
+        <v>55.749938</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>500000000 RUB</t>
+          <t>599984364 RUB</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5528,12 +5528,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/poluyaroslavskij-b-pereulok-8-os36878</t>
+          <t>https://kf.expert/office/pomeschenie/biznes-tsentr-1-j-truzhennikov-per-12-os38243</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 626 м², -1-6 этаж - Большой Полуярославский пер., 8</t>
+          <t>Офисное помещение 3 945 м², 1-8 этаж - 1-й Тружеников пер., д. 12, стр. 2-3 (продается только целиком)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Басманный (ТТК Восток), Таганский, Полуярославский Б. переулок, 8</t>
+          <t>Хамовники (СК Запад), Хамовники, Тружеников 1-й переулок, 12, стр. 2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5552,14 +5552,14 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>37.662678</v>
+        <v>37.57317</v>
       </c>
       <c r="G107" t="n">
-        <v>55.752262</v>
+        <v>55.738029</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>715000000 RUB</t>
+          <t>950000000 RUB</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5576,12 +5576,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/salyut-os36926</t>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38280</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Продаётся офис 9 818 м², 1-6 этаж - Салют</t>
+          <t>Офис 2 456 м², 19 этаж - Федерация</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Тверской-Новослободский (ТТК Север), Тверской, Сущевская ул., 27, Москва</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5600,14 +5600,14 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>37.601193</v>
+        <v>37.537106</v>
       </c>
       <c r="G108" t="n">
-        <v>55.783331</v>
+        <v>55.749938</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1550000000 RUB</t>
+          <t>1800000000 RUB</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/solyanka-ulitsa-d-13-3-str-1-os36980</t>
+          <t>https://kf.expert/office/pomeschenie/bolshaya-polyanka-ulitsa-d-2-str-2-os38281</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Продаётся офис 2 638 м², -1-4 этаж - Солянка улица, д. 13/3 стр. 1</t>
+          <t>Офисное помещение 1 884 м², 1-4 этаж - Большая Полянка 2 стр. 2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Таганский (ТТК Восток), Таганский, Солянка улица, 13, стр. 1</t>
+          <t>СК Юг (Замоскворечье), Якиманка, Полянка Б улица, 2, стр. 2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5648,14 +5648,14 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>37.641863</v>
+        <v>37.615867</v>
       </c>
       <c r="G109" t="n">
-        <v>55.751266</v>
+        <v>55.741586</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>600000000 RUB</t>
+          <t>650000000 RUB</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5672,12 +5672,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/fili-grad-zhk-os37043</t>
+          <t>https://kf.expert/office/pomeschenie/leningradskij-prospekt-d-5-str-7-os38287</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Офисное помещение 3 200 м², 1-3 этаж - Фили Град ЖК</t>
+          <t>Офисное помещение 2 427 м², -1-4 этаж - Ленинградский проспект, д. 5 стр. 7</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Береговой проезд, 5, стр. 1</t>
+          <t>Тверской-Новослободский (ТТК Север), Беговой, Ленинградский проспект, 5, стр. 7</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5696,14 +5696,14 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>37.507446</v>
+        <v>37.577382</v>
       </c>
       <c r="G110" t="n">
-        <v>55.756935</v>
+        <v>55.778983</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>640000000 RUB</t>
+          <t>409999686 RUB</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5720,12 +5720,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/delovoj-kvartal-park-legend-b+-os37377</t>
+          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os38403</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Продаётся офис 1 730 м², 7 этаж - Парк Легенд В</t>
+          <t>Продаётся офис 2 592 м², 4 этаж - Верейская Плаза IV</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
+          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5744,14 +5744,14 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>37.634568</v>
+        <v>37.438617</v>
       </c>
       <c r="G111" t="n">
-        <v>55.703794</v>
+        <v>55.709772</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>519000000 RUB</t>
+          <t>777750000 RUB</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5768,12 +5768,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/delovoj-kvartar-park-legend-a-os37383</t>
+          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os38404</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Продаётся офис 22 022 м², 4-18 этаж - Парк Легенд А</t>
+          <t>Продаётся офис 2 592 м², 5 этаж - Верейская Плаза IV</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Даниловский, ул. Автозаводская, д. 23, с. 120</t>
+          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5792,14 +5792,14 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>37.6448</v>
+        <v>37.438617</v>
       </c>
       <c r="G112" t="n">
-        <v>55.701521</v>
+        <v>55.709772</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>7700000000 RUB</t>
+          <t>777750000 RUB</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5816,12 +5816,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dom-na-davydkovskoj-os37492</t>
+          <t>https://kf.expert/office/pomeschenie/federatsiya-os38479</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Офисное помещение 810 м², -1-1 этаж - Дом на Давыдковской</t>
+          <t>Продажа офиса 2 380 м², 46 этаж - Федерация</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Фили-Давыдково, ул. Давыдковская, д. 16</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5840,14 +5840,14 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>37.46564</v>
+        <v>37.537106</v>
       </c>
       <c r="G113" t="n">
-        <v>55.720986</v>
+        <v>55.749938</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>145800000 RUB</t>
+          <t>1380400000 RUB</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5864,12 +5864,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bashnya-4-park-legend-klass-v+-os37640</t>
+          <t>https://kf.expert/office/pomeschenie/loft-kvartal-os38509</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Офис 12 500 м², 7-13 этаж - Парк Легенд В</t>
+          <t>Продаётся офис 7 700 м², 1-5 этаж - Лофт Квартал (Стр. 8)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
+          <t>Можайский, тер Сколково инновационного центра, б-р Большой, д. 42, стр 8</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5888,14 +5888,14 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>37.633868</v>
+        <v>37.354508</v>
       </c>
       <c r="G114" t="n">
-        <v>55.689689</v>
+        <v>55.698149</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>3500000000 RUB</t>
+          <t>1347500000 RUB</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os37744</t>
+          <t>https://kf.expert/office/pomeschenie/loft-kvartal-os38512</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Офис 265 м², 3 этаж - Прайм Тайм</t>
+          <t>Продаётся офис 11 100 м², 1-5 этаж - Лофт Квартал (Стр. 9)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Можайский, тер Сколково инновационного центра, б-р Большой, д. 42, стр 9</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5936,14 +5936,14 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>37.524938</v>
+        <v>37.346651</v>
       </c>
       <c r="G115" t="n">
-        <v>55.795368</v>
+        <v>55.693382</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>74721593 RUB</t>
+          <t>1942500000 RUB</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5960,12 +5960,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os37808</t>
+          <t>https://kf.expert/office/pomeschenie/zilart-os38671</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 242 м², 8 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 23 200 м², 3 этаж - Зиларт</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Тульский (ТТК Юг), Даниловский, Автозаводская улица, 23, стр. 24</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5984,14 +5984,14 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>37.530708</v>
+        <v>37.631846</v>
       </c>
       <c r="G116" t="n">
-        <v>55.755616</v>
+        <v>55.700705</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1322809500 RUB</t>
+          <t>4000004800 RUB</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6008,12 +6008,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/federatsiya-bashnya-vostok-os37826</t>
+          <t>https://kf.expert/office/pomeschenie/vernadskogo-pr-kt-d-94-k-6-os38751</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 181 м², 95 этаж - Федерация</t>
+          <t>Офис 2 031 м², -1-2 этаж - Проспект Вернадского, д. 94 к. 6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
+          <t>Тропарево-Никулино, Вернадского пр-кт, д. 94, к. 6</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6032,14 +6032,14 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>37.537106</v>
+        <v>37.473413</v>
       </c>
       <c r="G117" t="n">
-        <v>55.749938</v>
+        <v>55.652818</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2600000634 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6056,12 +6056,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38127</t>
+          <t>https://kf.expert/office/pomeschenie/barkli-osobnyak-os38824</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Продажа офиса 561 м², 35 этаж - Федерация</t>
+          <t>Продаётся офис 2 125 м², -2-4 этаж - Баркли</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
+          <t>Центральный деловой район, Пресненский, Никитская Б. улица, 17, стр. 2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6080,14 +6080,14 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>37.537106</v>
+        <v>37.602495</v>
       </c>
       <c r="G118" t="n">
-        <v>55.749938</v>
+        <v>55.756821</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>375870000 RUB</t>
+          <t>1500000000 RUB</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6104,12 +6104,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38128</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43001</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Офисное помещение 994 м², 30 этаж - Федерация</t>
+          <t>Продажа офиса 285 м², 13 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6128,14 +6128,14 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>37.537106</v>
+        <v>37.530354</v>
       </c>
       <c r="G119" t="n">
-        <v>55.749938</v>
+        <v>55.755302</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>599984364 RUB</t>
+          <t>169905012 RUB</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6152,12 +6152,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os38227</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43002</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Продаётся офис 98 м², 12 этаж - DM Tower</t>
+          <t>Продажа офиса 260 м², 12 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6176,14 +6176,14 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>37.625712</v>
+        <v>37.530354</v>
       </c>
       <c r="G120" t="n">
-        <v>55.695313</v>
+        <v>55.755302</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>24601200 RUB</t>
+          <t>153881000 RUB</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6200,12 +6200,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os38228</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43003</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Офисное помещение 926 м², 15 этаж - DM Tower</t>
+          <t>Продажа офиса 282 м², 12 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6224,14 +6224,14 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>37.625712</v>
+        <v>37.530354</v>
       </c>
       <c r="G121" t="n">
-        <v>55.695313</v>
+        <v>55.755302</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>167061499 RUB</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6248,12 +6248,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dm-tower-os38230</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43004</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 085 м², 17 этаж - DM Tower</t>
+          <t>Продажа офиса 318 м², 14 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6272,14 +6272,14 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>37.625712</v>
+        <v>37.530354</v>
       </c>
       <c r="G122" t="n">
-        <v>55.695313</v>
+        <v>55.755302</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>525262372 RUB</t>
+          <t>189327654 RUB</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6296,12 +6296,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/biznes-tsentr-1-j-truzhennikov-per-12-os38243</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43006</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Офисное помещение 3 945 м², 1-8 этаж - 1-й Тружеников пер., д. 12, стр. 2-3 (продается только целиком)</t>
+          <t>Продажа офиса 452 м², 14 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Хамовники (СК Запад), Хамовники, Тружеников 1-й переулок, 12, стр. 2</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6320,14 +6320,14 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>37.57317</v>
+        <v>37.530354</v>
       </c>
       <c r="G123" t="n">
-        <v>55.738029</v>
+        <v>55.755302</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>950000000 RUB</t>
+          <t>267658244 RUB</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6344,12 +6344,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38280</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43007</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Офис 2 456 м², 19 этаж - Федерация</t>
+          <t>Продажа офиса 1 788 м², 9 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6368,14 +6368,14 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>37.537106</v>
+        <v>37.530354</v>
       </c>
       <c r="G124" t="n">
-        <v>55.749938</v>
+        <v>55.755302</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1800000000 RUB</t>
+          <t>1081370850 RUB</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6392,12 +6392,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bolshaya-polyanka-ulitsa-d-2-str-2-os38281</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43008</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Офисное помещение 1 884 м², 1-4 этаж - Большая Полянка 2 стр. 2</t>
+          <t>Продажа офиса 1 786 м², 11 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>СК Юг (Замоскворечье), Якиманка, Полянка Б улица, 2, стр. 2</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6416,14 +6416,14 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>37.615867</v>
+        <v>37.530354</v>
       </c>
       <c r="G125" t="n">
-        <v>55.741586</v>
+        <v>55.755302</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>650000000 RUB</t>
+          <t>1071978000 RUB</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6440,12 +6440,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/leningradskij-prospekt-d-5-str-7-os38287</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43009</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Офисное помещение 2 427 м², -1-4 этаж - Ленинградский проспект, д. 5 стр. 7</t>
+          <t>Продажа офиса 523 м², 12 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Тверской-Новослободский (ТТК Север), Беговой, Ленинградский проспект, 5, стр. 7</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6464,14 +6464,14 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>37.577382</v>
+        <v>37.530354</v>
       </c>
       <c r="G126" t="n">
-        <v>55.778983</v>
+        <v>55.755302</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>409999686 RUB</t>
+          <t>306434128 RUB</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6488,12 +6488,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os38403</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43016</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Продаётся офис 2 592 м², 4 этаж - Верейская Плаза IV</t>
+          <t>Продажа офиса 264 м², 28 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6512,14 +6512,14 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>37.438617</v>
+        <v>37.530354</v>
       </c>
       <c r="G127" t="n">
-        <v>55.709772</v>
+        <v>55.755302</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>777750000 RUB</t>
+          <t>165401460 RUB</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6536,12 +6536,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os38404</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43018</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Продаётся офис 2 592 м², 5 этаж - Верейская Плаза IV</t>
+          <t>Продажа офиса 450 м², 16 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6560,14 +6560,14 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>37.438617</v>
+        <v>37.530354</v>
       </c>
       <c r="G128" t="n">
-        <v>55.709772</v>
+        <v>55.755302</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>777750000 RUB</t>
+          <t>268437836 RUB</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6584,12 +6584,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/federatsiya-os38479</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43023</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 380 м², 46 этаж - Федерация</t>
+          <t>Продажа офиса 449 м², 17 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6608,14 +6608,14 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>37.537106</v>
+        <v>37.530354</v>
       </c>
       <c r="G129" t="n">
-        <v>55.749938</v>
+        <v>55.755302</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1380400000 RUB</t>
+          <t>269169390 RUB</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6632,12 +6632,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/loft-kvartal-os38509</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43024</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Продаётся офис 7 700 м², 1-5 этаж - Лофт Квартал (Стр. 8)</t>
+          <t>Продажа офиса 226 м², 17 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Можайский, тер Сколково инновационного центра, б-р Большой, д. 42, стр 8</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6656,14 +6656,14 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>37.354508</v>
+        <v>37.530354</v>
       </c>
       <c r="G130" t="n">
-        <v>55.698149</v>
+        <v>55.755302</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1347500000 RUB</t>
+          <t>138817420 RUB</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6680,12 +6680,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/loft-kvartal-os38512</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Продаётся офис 11 100 м², 1-5 этаж - Лофт Квартал (Стр. 9)</t>
+          <t>Продажа офиса 790 м², 29 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Можайский, тер Сколково инновационного центра, б-р Большой, д. 42, стр 9</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6704,14 +6704,14 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>37.346651</v>
+        <v>37.530354</v>
       </c>
       <c r="G131" t="n">
-        <v>55.693382</v>
+        <v>55.755302</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1942500000 RUB</t>
+          <t>489998068 RUB</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6728,12 +6728,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/zilart-os38671</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43026</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Продажа офиса 23 200 м², 3 этаж - Зиларт</t>
+          <t>Продажа офиса 741 м², 28 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Даниловский, Автозаводская улица, 23, стр. 24</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6752,14 +6752,14 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>37.631846</v>
+        <v>37.530354</v>
       </c>
       <c r="G132" t="n">
-        <v>55.700705</v>
+        <v>55.755302</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>4000004800 RUB</t>
+          <t>459387133 RUB</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6776,12 +6776,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/vernadskogo-pr-kt-d-94-k-6-os38751</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43027</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Офис 2 031 м², -1-2 этаж - Проспект Вернадского, д. 94 к. 6</t>
+          <t>Продажа офиса 448 м², 18 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Тропарево-Никулино, Вернадского пр-кт, д. 94, к. 6</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6800,14 +6800,14 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>37.473413</v>
+        <v>37.530354</v>
       </c>
       <c r="G133" t="n">
-        <v>55.652818</v>
+        <v>55.755302</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>269788584 RUB</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/barkli-osobnyak-os38824</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43028</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Продаётся офис 2 125 м², -2-4 этаж - Баркли</t>
+          <t>Продажа офиса 258 м², 18 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Центральный деловой район, Пресненский, Никитская Б. улица, 17, стр. 2</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6848,14 +6848,14 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>37.602495</v>
+        <v>37.530354</v>
       </c>
       <c r="G134" t="n">
-        <v>55.756821</v>
+        <v>55.755302</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1500000000 RUB</t>
+          <t>154972078 RUB</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6872,12 +6872,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43001</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43030</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Продажа офиса 285 м², 13 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 324 м², 29 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>169905012 RUB</t>
+          <t>201732804 RUB</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6920,12 +6920,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43002</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43031</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Продажа офиса 260 м², 12 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 284 м², 19 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>153881000 RUB</t>
+          <t>172525365 RUB</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6968,12 +6968,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43003</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43036</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Продажа офиса 282 м², 12 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 239 м², 19 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>167061499 RUB</t>
+          <t>145889030 RUB</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7016,12 +7016,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43004</t>
+          <t>https://kf.expert/office/pomeschenie/mytnaya-66-os43093</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Продажа офиса 318 м², 14 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 10 317 м², 1-5 этаж - Мытная 66</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Тульский (ТТК Юг), Даниловский, ул. Мытная, д. 66</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7040,14 +7040,14 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>37.530354</v>
+        <v>37.620172</v>
       </c>
       <c r="G138" t="n">
-        <v>55.755302</v>
+        <v>55.713184</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>189327654 RUB</t>
+          <t>2300000000 RUB</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7064,12 +7064,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43006</t>
+          <t>https://kf.expert/office/pomeschenie/zemlyanoj-val-ulitsa-d-48a-os43136</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Продажа офиса 452 м², 14 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 334 м², 2 этаж - Sugar Factory</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>СК Восток, Таганский, ул. Земляной Вал, д. 50А, стр 6</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7088,14 +7088,14 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>37.530354</v>
+        <v>37.653872</v>
       </c>
       <c r="G139" t="n">
-        <v>55.755302</v>
+        <v>55.751713</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>267658244 RUB</t>
+          <t>126958000 RUB</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7112,12 +7112,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43007</t>
+          <t>https://kf.expert/office/pomeschenie/zemlyanoj-val-ulitsa-d-48a-os43138</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 788 м², 9 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 406 м², 4 этаж - Sugar Factory</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>СК Восток, Таганский, ул. Земляной Вал, д. 50А, стр 6</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7136,14 +7136,14 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>37.530354</v>
+        <v>37.653872</v>
       </c>
       <c r="G140" t="n">
-        <v>55.755302</v>
+        <v>55.751713</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1081370850 RUB</t>
+          <t>154394000 RUB</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7160,12 +7160,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43008</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43144</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 786 м², 11 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 321 м², 3 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7184,14 +7184,14 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G141" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1071978000 RUB</t>
+          <t>90676974 RUB</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7208,12 +7208,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43009</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43146</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Продажа офиса 523 м², 12 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 321 м², 4 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7232,14 +7232,14 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G142" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>306434128 RUB</t>
+          <t>91354285 RUB</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7256,12 +7256,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43016</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43147</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Продажа офиса 264 м², 28 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 265 м², 5 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7280,14 +7280,14 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G143" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>165401460 RUB</t>
+          <t>75279726 RUB</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7304,12 +7304,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43018</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43148</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Продажа офиса 450 м², 16 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 265 м², 8 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7328,14 +7328,14 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G144" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>268437836 RUB</t>
+          <t>81142020 RUB</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7352,12 +7352,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43023</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43149</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Продажа офиса 449 м², 17 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 265 м², 9 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7376,14 +7376,14 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G145" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>269169390 RUB</t>
+          <t>82733040 RUB</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7400,12 +7400,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43024</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43150</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Продажа офиса 226 м², 17 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 322 м², 10 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7424,14 +7424,14 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G146" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>138817420 RUB</t>
+          <t>102427800 RUB</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7448,12 +7448,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43025</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43151</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Продажа офиса 790 м², 29 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 265 м², 10 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7472,14 +7472,14 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G147" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>489998068 RUB</t>
+          <t>84324060 RUB</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7496,12 +7496,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43026</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43156</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Продажа офиса 741 м², 28 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 322 м², 7 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7520,14 +7520,14 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G148" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>459387133 RUB</t>
+          <t>96468950 RUB</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7544,12 +7544,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43027</t>
+          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43157</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Продажа офиса 448 м², 18 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 321 м², 6 этаж - Прайм Тайм</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7568,14 +7568,14 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>37.530354</v>
+        <v>37.524938</v>
       </c>
       <c r="G149" t="n">
-        <v>55.755302</v>
+        <v>55.795368</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>269788584 RUB</t>
+          <t>93427705 RUB</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7592,12 +7592,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43028</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43158</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Продажа офиса 258 м², 18 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 399 м², 2 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7616,14 +7616,14 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>37.530354</v>
+        <v>37.635889</v>
       </c>
       <c r="G150" t="n">
-        <v>55.755302</v>
+        <v>55.808067</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>154972078 RUB</t>
+          <t>123198731 RUB</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7640,12 +7640,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43030</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43159</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Продажа офиса 324 м², 29 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 239 м², 2 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7664,14 +7664,14 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>37.530354</v>
+        <v>37.635889</v>
       </c>
       <c r="G151" t="n">
-        <v>55.755302</v>
+        <v>55.808067</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>201732804 RUB</t>
+          <t>77310773 RUB</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7688,12 +7688,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43031</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43160</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Продажа офиса 284 м², 19 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 712 м², 2 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7712,14 +7712,14 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>37.530354</v>
+        <v>37.635889</v>
       </c>
       <c r="G152" t="n">
-        <v>55.755302</v>
+        <v>55.808067</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>172525365 RUB</t>
+          <t>211656693 RUB</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-bashnya-2-os43036</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43161</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Продажа офиса 239 м², 19 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 093 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7760,14 +7760,14 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>37.530354</v>
+        <v>37.635889</v>
       </c>
       <c r="G153" t="n">
-        <v>55.755302</v>
+        <v>55.808067</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>145889030 RUB</t>
+          <t>342897145 RUB</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7784,12 +7784,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/mytnaya-66-os43093</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43162</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Продажа офиса 10 317 м², 1-5 этаж - Мытная 66</t>
+          <t>Продажа офиса 203 м², 3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Тульский (ТТК Юг), Даниловский, ул. Мытная, д. 66</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7808,14 +7808,14 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>37.620172</v>
+        <v>37.635889</v>
       </c>
       <c r="G154" t="n">
-        <v>55.713184</v>
+        <v>55.808067</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2300000000 RUB</t>
+          <t>65837928 RUB</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7832,12 +7832,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/zemlyanoj-val-ulitsa-d-48a-os43136</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43163</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Продажа офиса 334 м², 2 этаж - Sugar Factory</t>
+          <t>Продажа офиса 279 м², 3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>СК Восток, Таганский, ул. Земляной Вал, д. 50А, стр 6</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7856,14 +7856,14 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>37.653872</v>
+        <v>37.635889</v>
       </c>
       <c r="G155" t="n">
-        <v>55.751713</v>
+        <v>55.808067</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>126958000 RUB</t>
+          <t>90152880 RUB</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7880,12 +7880,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/zemlyanoj-val-ulitsa-d-48a-os43138</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43164</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Продажа офиса 406 м², 4 этаж - Sugar Factory</t>
+          <t>Продажа офиса 270 м², 3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>СК Восток, Таганский, ул. Земляной Вал, д. 50А, стр 6</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7904,14 +7904,14 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>37.653872</v>
+        <v>37.635889</v>
       </c>
       <c r="G156" t="n">
-        <v>55.751713</v>
+        <v>55.808067</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>154394000 RUB</t>
+          <t>87152086 RUB</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7928,12 +7928,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43144</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43165</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Продажа офиса 321 м², 3 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 711 м², 3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7952,14 +7952,14 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>37.524938</v>
+        <v>37.635889</v>
       </c>
       <c r="G157" t="n">
-        <v>55.795368</v>
+        <v>55.808067</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>90676974 RUB</t>
+          <t>211300369 RUB</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7976,12 +7976,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43146</t>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43166</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Продажа офиса 321 м², 4 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 861 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8000,14 +8000,14 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>37.524938</v>
+        <v>37.635889</v>
       </c>
       <c r="G158" t="n">
-        <v>55.795368</v>
+        <v>55.808067</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>91354285 RUB</t>
+          <t>251591508 RUB</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8024,12 +8024,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43147</t>
+          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43215</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Продажа офиса 265 м², 5 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 1 730 м², 11 этаж - Парк Легенд В</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8048,14 +8048,14 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>37.524938</v>
+        <v>37.642204</v>
       </c>
       <c r="G159" t="n">
-        <v>55.795368</v>
+        <v>55.701075</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>75279726 RUB</t>
+          <t>570900000 RUB</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8072,12 +8072,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43148</t>
+          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43216</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Продажа офиса 265 м², 8 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 1 730 м², 13 этаж - Парк Легенд В</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8096,14 +8096,14 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>37.524938</v>
+        <v>37.642204</v>
       </c>
       <c r="G160" t="n">
-        <v>55.795368</v>
+        <v>55.701075</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>81142020 RUB</t>
+          <t>605500000 RUB</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8120,12 +8120,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43149</t>
+          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43217</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Продажа офиса 265 м², 9 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 1 730 м², 12 этаж - Парк Легенд В</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8144,14 +8144,14 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>37.524938</v>
+        <v>37.642204</v>
       </c>
       <c r="G161" t="n">
-        <v>55.795368</v>
+        <v>55.701075</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>82733040 RUB</t>
+          <t>588200000 RUB</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8168,12 +8168,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43150</t>
+          <t>https://kf.expert/office/pomeschenie/evropa-bilding-os43231</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Продажа офиса 322 м², 10 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 10 300 м², 1-13 этаж - Европа Билдинг</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>СК Запад, Дорогомилово, Брянская улица, 5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8192,14 +8192,14 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>37.524938</v>
+        <v>37.561561</v>
       </c>
       <c r="G162" t="n">
-        <v>55.795368</v>
+        <v>55.744003</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>102427800 RUB</t>
+          <t>3605000000 RUB</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8216,12 +8216,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43151</t>
+          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os43292</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Продажа офиса 265 м², 10 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 2 673 м², 6 этаж - Верейская Плаза IV</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8240,14 +8240,14 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>37.524938</v>
+        <v>37.438617</v>
       </c>
       <c r="G163" t="n">
-        <v>55.795368</v>
+        <v>55.709772</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>84324060 RUB</t>
+          <t>801900000 RUB</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8264,12 +8264,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43156</t>
+          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os43293</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Продажа офиса 322 м², 7 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 3 848 м², 7 этаж - Верейская Плаза IV</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8288,14 +8288,14 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>37.524938</v>
+        <v>37.438617</v>
       </c>
       <c r="G164" t="n">
-        <v>55.795368</v>
+        <v>55.709772</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>96468950 RUB</t>
+          <t>1154430000 RUB</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8312,12 +8312,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/prajm-tajm-korpus-s-os43157</t>
+          <t>https://kf.expert/office/pomeschenie/icity-space-os43611</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Продажа офиса 321 м², 6 этаж - Прайм Тайм</t>
+          <t>Продажа офиса 174 м², 28 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ЧТК Северо-Запад, Хорошёвский, Викторенко ул., д. 11</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8336,14 +8336,14 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>37.524938</v>
+        <v>37.530354</v>
       </c>
       <c r="G165" t="n">
-        <v>55.795368</v>
+        <v>55.755302</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>93427705 RUB</t>
+          <t>110809482 RUB</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8360,12 +8360,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43158</t>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-v-os43893</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Продажа офиса 399 м², 2 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 141 м², 4 этаж - Stone towers</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>Беговой, проезд Бумажный, д. 19</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8384,14 +8384,14 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>37.635889</v>
+        <v>37.585907</v>
       </c>
       <c r="G166" t="n">
-        <v>55.808067</v>
+        <v>55.789864</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>123198731 RUB</t>
+          <t>744267300 RUB</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8408,12 +8408,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43159</t>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-s-os43900</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Продажа офиса 239 м², 2 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 1 102 м², 7 этаж - Stone towers</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>Беговой, проезд Бумажный, д. 19</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8432,14 +8432,14 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>37.635889</v>
+        <v>37.585907</v>
       </c>
       <c r="G167" t="n">
-        <v>55.808067</v>
+        <v>55.789864</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>77310773 RUB</t>
+          <t>468392500 RUB</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8456,12 +8456,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43160</t>
+          <t>https://kf.expert/office/pomeschenie/etazh-1-os44101</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Продажа офиса 712 м², 2 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 811 м², 1 этаж - Этаж 1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>Арбат, наб Смоленская, д. 2А</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8480,14 +8480,14 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>37.635889</v>
+        <v>37.576951</v>
       </c>
       <c r="G168" t="n">
-        <v>55.808067</v>
+        <v>55.74789</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>211656693 RUB</t>
+          <t>298047499 RUB</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8504,12 +8504,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43161</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44224</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 093 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 540 м², 3 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8528,14 +8528,14 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G169" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>342897145 RUB</t>
+          <t>102167488 RUB</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8552,12 +8552,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43162</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44225</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Продажа офиса 203 м², 3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 501 м², 4 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8576,14 +8576,14 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G170" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>65837928 RUB</t>
+          <t>94610406 RUB</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8600,12 +8600,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43163</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44226</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Продажа офиса 279 м², 3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 774 м², 4 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8624,14 +8624,14 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G171" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>90152880 RUB</t>
+          <t>154449336 RUB</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43164</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44227</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Продажа офиса 270 м², 3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 2 215 м², 5 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8672,14 +8672,14 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G172" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>87152086 RUB</t>
+          <t>492288928 RUB</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8696,12 +8696,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43165</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44228</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Продажа офиса 711 м², 3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 516 м², 7 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8720,14 +8720,14 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G173" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>211300369 RUB</t>
+          <t>106039448 RUB</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8744,12 +8744,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43166</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44229</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Продажа офиса 861 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
+          <t>Продажа офиса 575 м², 8 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8768,14 +8768,14 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>37.635889</v>
+        <v>37.665167</v>
       </c>
       <c r="G174" t="n">
-        <v>55.808067</v>
+        <v>55.694063</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>251591508 RUB</t>
+          <t>123394983 RUB</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8792,12 +8792,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43215</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44231</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 730 м², 11 этаж - Парк Легенд В</t>
+          <t>Продажа офиса 455 м², 3 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8816,14 +8816,14 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>37.642204</v>
+        <v>37.665167</v>
       </c>
       <c r="G175" t="n">
-        <v>55.701075</v>
+        <v>55.694063</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>570900000 RUB</t>
+          <t>92798025 RUB</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8840,12 +8840,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43216</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44232</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 730 м², 13 этаж - Парк Легенд В</t>
+          <t>Продажа офиса 527 м², 4 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8864,14 +8864,14 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>37.642204</v>
+        <v>37.665167</v>
       </c>
       <c r="G176" t="n">
-        <v>55.701075</v>
+        <v>55.694063</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>605500000 RUB</t>
+          <t>113839000 RUB</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8888,12 +8888,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/park-legend-mfk-str-3-os43217</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44233</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 730 м², 12 этаж - Парк Легенд В</t>
+          <t>Продажа офиса 990 м², 9 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Даниловский, Автозаводская ул., д. 130, к. 2</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8912,14 +8912,14 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>37.642204</v>
+        <v>37.665167</v>
       </c>
       <c r="G177" t="n">
-        <v>55.701075</v>
+        <v>55.694063</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>588200000 RUB</t>
+          <t>250661427 RUB</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8936,12 +8936,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/evropa-bilding-os43231</t>
+          <t>https://kf.expert/office/pomeschenie/tverskoj-bulvar-d-16-str-5-os44255</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Продажа офиса 10 300 м², 1-13 этаж - Европа Билдинг</t>
+          <t>Продажа офиса 220 м², 1 этаж - Тверской бульвар, д.16,стр. 5</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>СК Запад, Дорогомилово, Брянская улица, 5</t>
+          <t>СК Север, Пресненский, Тверской б-р, д. 16, стр. 5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8960,14 +8960,14 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>37.561561</v>
+        <v>37.602361</v>
       </c>
       <c r="G178" t="n">
-        <v>55.744003</v>
+        <v>55.759819</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>3605000000 RUB</t>
+          <t>150000000 RUB</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8984,12 +8984,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os43292</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44338</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 673 м², 6 этаж - Верейская Плаза IV</t>
+          <t>Продажа офиса 258 м², 29 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9008,14 +9008,14 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>37.438617</v>
+        <v>37.530354</v>
       </c>
       <c r="G179" t="n">
-        <v>55.709772</v>
+        <v>55.755302</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>801900000 RUB</t>
+          <t>163307375 RUB</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9032,12 +9032,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/verejskaya-plaza-iv-os43293</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44339</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Продажа офиса 3 848 м², 7 этаж - Верейская Плаза IV</t>
+          <t>Продажа офиса 289 м², 13 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>МКАД Запад, Можайский, Верейская улица, 29, стр. 34</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9056,14 +9056,14 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>37.438617</v>
+        <v>37.530354</v>
       </c>
       <c r="G180" t="n">
-        <v>55.709772</v>
+        <v>55.755302</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1154430000 RUB</t>
+          <t>171914456 RUB</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9080,12 +9080,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-space-os43611</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44354</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Продажа офиса 174 м², 28 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 447 м², 19 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>110809482 RUB</t>
+          <t>291130668 RUB</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9128,12 +9128,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-v-os43893</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44355</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Продажа офиса 141 м², 4 этаж - Stone towers</t>
+          <t>Продажа офиса 259 м², 19 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Беговой, проезд Бумажный, д. 19</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9152,14 +9152,14 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>37.585907</v>
+        <v>37.530354</v>
       </c>
       <c r="G182" t="n">
-        <v>55.789864</v>
+        <v>55.755302</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>744267300 RUB</t>
+          <t>156105159 RUB</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9176,12 +9176,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-s-os43900</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44361</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 102 м², 7 этаж - Stone towers</t>
+          <t>Продажа офиса 259 м², 20 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Беговой, проезд Бумажный, д. 19</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9200,14 +9200,14 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>37.585907</v>
+        <v>37.530354</v>
       </c>
       <c r="G183" t="n">
-        <v>55.789864</v>
+        <v>55.755302</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>468392500 RUB</t>
+          <t>156745953 RUB</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9224,12 +9224,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/etazh-1-os44101</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44363</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Продажа офиса 811 м², 1 этаж - Этаж 1</t>
+          <t>Продажа офиса 259 м², 23 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Арбат, наб Смоленская, д. 2А</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9248,14 +9248,14 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>37.576951</v>
+        <v>37.530354</v>
       </c>
       <c r="G184" t="n">
-        <v>55.74789</v>
+        <v>55.755302</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>298047499 RUB</t>
+          <t>158300975 RUB</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9272,12 +9272,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44224</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44365</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Продажа офиса 540 м², 3 этаж - Технопарк YES</t>
+          <t>Продажа офиса 233 м², 23 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9296,14 +9296,14 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G185" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>102167488 RUB</t>
+          <t>143124492 RUB</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9320,12 +9320,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44225</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44368</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Продажа офиса 501 м², 4 этаж - Технопарк YES</t>
+          <t>Продажа офиса 255 м², 24 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9344,14 +9344,14 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G186" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>94610406 RUB</t>
+          <t>125518893 RUB</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9368,12 +9368,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44226</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44376</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Продажа офиса 774 м², 4 этаж - Технопарк YES</t>
+          <t>Продажа офиса 396 м², 27 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9392,14 +9392,14 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G187" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>154449336 RUB</t>
+          <t>244502944 RUB</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9416,12 +9416,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44227</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44382</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 215 м², 5 этаж - Технопарк YES</t>
+          <t>Продажа офиса 305 м², 27 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9440,14 +9440,14 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G188" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>492288928 RUB</t>
+          <t>188345024 RUB</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9464,12 +9464,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44228</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44386</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Продажа офиса 516 м², 7 этаж - Технопарк YES</t>
+          <t>Продажа офиса 270 м², 28 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9488,14 +9488,14 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G189" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>106039448 RUB</t>
+          <t>169152060 RUB</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9512,12 +9512,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44229</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44387</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Продажа офиса 575 м², 8 этаж - Технопарк YES</t>
+          <t>Продажа офиса 186 м², 29 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9536,14 +9536,14 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G190" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>123394983 RUB</t>
+          <t>118756232 RUB</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9560,12 +9560,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44231</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44388</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Продажа офиса 455 м², 3 этаж - Технопарк YES</t>
+          <t>Продажа офиса 438 м², 23 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9584,14 +9584,14 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G191" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>92798025 RUB</t>
+          <t>267813189 RUB</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9608,12 +9608,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44232</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44389</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Продажа офиса 527 м², 4 этаж - Технопарк YES</t>
+          <t>Продажа офиса 1 846 м², 31 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9632,14 +9632,14 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G192" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>113839000 RUB</t>
+          <t>1154150000 RUB</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -9656,12 +9656,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44233</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44390</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Продажа офиса 990 м², 9 этаж - Технопарк YES</t>
+          <t>Продажа офиса 264 м², 12 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -9680,14 +9680,14 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>37.665167</v>
+        <v>37.530354</v>
       </c>
       <c r="G193" t="n">
-        <v>55.694063</v>
+        <v>55.755302</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>250661427 RUB</t>
+          <t>156307585 RUB</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -9704,12 +9704,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tverskoj-bulvar-d-16-str-5-os44255</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44391</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Продажа офиса 220 м², 1 этаж - Тверской бульвар, д.16,стр. 5</t>
+          <t>Продажа офиса 1 980 м², 50 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>СК Север, Пресненский, Тверской б-р, д. 16, стр. 5</t>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9728,14 +9728,14 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>37.602361</v>
+        <v>37.530354</v>
       </c>
       <c r="G194" t="n">
-        <v>55.759819</v>
+        <v>55.755302</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>150000000 RUB</t>
+          <t>1287227500 RUB</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9752,12 +9752,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44338</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44393</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Продажа офиса 258 м², 29 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 978 м², 49 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>163307375 RUB</t>
+          <t>1281873600 RUB</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -9800,12 +9800,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44339</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44394</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Продажа офиса 289 м², 13 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 971 м², 48 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>171914456 RUB</t>
+          <t>1273266000 RUB</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -9848,12 +9848,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44354</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44395</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Продажа офиса 447 м², 19 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 956 м², 47 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>291130668 RUB</t>
+          <t>1260114800 RUB</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9896,12 +9896,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44355</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44396</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Продажа офиса 259 м², 19 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 893 м², 46 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>156105159 RUB</t>
+          <t>1215306000 RUB</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9944,12 +9944,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44361</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44397</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Продажа офиса 259 м², 20 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 892 м², 44 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>156745953 RUB</t>
+          <t>1211008000 RUB</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9992,12 +9992,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44363</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44402</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Продажа офиса 259 м², 23 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 437 м², 25 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>158300975 RUB</t>
+          <t>268305688 RUB</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10040,12 +10040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44365</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44404</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Продажа офиса 233 м², 23 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 144 м², 12 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>143124492 RUB</t>
+          <t>89489715 RUB</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10088,12 +10088,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44368</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44406</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Продажа офиса 255 м², 24 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 859 м², 35 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>125518893 RUB</t>
+          <t>1171422000 RUB</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10136,12 +10136,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44376</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44450</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Продажа офиса 396 м², 27 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 568 м², 51 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10167,7 +10167,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>244502944 RUB</t>
+          <t>373241700 RUB</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -10184,12 +10184,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44382</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44451</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Продажа офиса 305 м², 27 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 332 м², 51 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>188345024 RUB</t>
+          <t>218715300 RUB</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -10232,12 +10232,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44386</t>
+          <t>https://kf.expert/office/pomeschenie/icity-os44452</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Продажа офиса 270 м², 28 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 436 м², 51 этаж - iCITY (Space)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>169152060 RUB</t>
+          <t>286583400 RUB</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -10280,12 +10280,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44387</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44902</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Продажа офиса 186 м², 29 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 2 666 м², 12 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -10304,14 +10304,14 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>37.530354</v>
+        <v>37.665167</v>
       </c>
       <c r="G206" t="n">
-        <v>55.755302</v>
+        <v>55.694063</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>118756232 RUB</t>
+          <t>693160000 RUB</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10328,12 +10328,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44388</t>
+          <t>https://kf.expert/office/pomeschenie/eko-os44908</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Продажа офиса 438 м², 23 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 12 400 м², 1-13 этаж - ЭКО</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10352,14 +10352,14 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>37.530354</v>
+        <v>37.731578</v>
       </c>
       <c r="G207" t="n">
-        <v>55.755302</v>
+        <v>55.78875</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>267813189 RUB</t>
+          <t>12400000 USD</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -10376,12 +10376,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44389</t>
+          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45411</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 846 м², 31 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 496 м², 4 этаж - СУПЕРМЕТАЛЛ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -10400,14 +10400,14 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>37.530354</v>
+        <v>37.683565</v>
       </c>
       <c r="G208" t="n">
-        <v>55.755302</v>
+        <v>55.763238</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>1154150000 RUB</t>
+          <t>148800000 RUB</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10424,12 +10424,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44390</t>
+          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45412</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Продажа офиса 264 м², 12 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 600 м², 5 этаж - СУПЕРМЕТАЛЛ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10448,14 +10448,14 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>37.530354</v>
+        <v>37.683565</v>
       </c>
       <c r="G209" t="n">
-        <v>55.755302</v>
+        <v>55.763238</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>156307585 RUB</t>
+          <t>180000000 RUB</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -10472,12 +10472,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44391</t>
+          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45413</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 980 м², 50 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 300 м², 7 этаж - СУПЕРМЕТАЛЛ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10496,14 +10496,14 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>37.530354</v>
+        <v>37.683565</v>
       </c>
       <c r="G210" t="n">
-        <v>55.755302</v>
+        <v>55.763238</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1287227500 RUB</t>
+          <t>81000000 RUB</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -10520,12 +10520,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44393</t>
+          <t>https://kf.expert/office/pomeschenie/bukhvostova-1-ya-ulitsa-d-12-11-os45414</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 978 м², 49 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 4 160 м², -1-4 этаж - Бухвостов</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Север, Преображенское, 2-я Бухвостова ул., д. 5</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10544,14 +10544,14 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>37.530354</v>
+        <v>37.705742</v>
       </c>
       <c r="G211" t="n">
-        <v>55.755302</v>
+        <v>55.798611</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>1281873600 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -10568,12 +10568,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44394</t>
+          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45813</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 971 м², 48 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 2 478 м², 1-4 этаж - ОСЗ на Алексея Свиридова</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10592,14 +10592,14 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>37.530354</v>
+        <v>37.45495</v>
       </c>
       <c r="G212" t="n">
-        <v>55.755302</v>
+        <v>55.726864</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1273266000 RUB</t>
+          <t>599676000 RUB</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10616,12 +10616,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44395</t>
+          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45814</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 956 м², 47 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 622 м², 1-2 этаж - ОСЗ на Алексея Свиридова</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -10640,14 +10640,14 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>37.530354</v>
+        <v>37.45495</v>
       </c>
       <c r="G213" t="n">
-        <v>55.755302</v>
+        <v>55.726864</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>1260114800 RUB</t>
+          <t>150524000 RUB</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10664,12 +10664,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44396</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os46095</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 893 м², 46 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 2 145 м², 2 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10688,14 +10688,14 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>37.530354</v>
+        <v>37.492385</v>
       </c>
       <c r="G214" t="n">
-        <v>55.755302</v>
+        <v>55.733925</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>1215306000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -10712,12 +10712,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44397</t>
+          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os46157</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 892 м², 44 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 2 215 м², 6 этаж - Технопарк YES</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10736,14 +10736,14 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>37.530354</v>
+        <v>37.665167</v>
       </c>
       <c r="G215" t="n">
-        <v>55.755302</v>
+        <v>55.694063</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1211008000 RUB</t>
+          <t>492288928 RUB</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -10760,12 +10760,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44402</t>
+          <t>https://kf.expert/office/pomeschenie/mytnaya-ul-d-46-str-5-os46262</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Продажа офиса 437 м², 25 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 5 981 м², 1-8 этаж - Мытная ул., д. 46, стр. 5</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Якиманка, Мытная ул., д. 46, стр. 5</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10784,14 +10784,14 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>37.530354</v>
+        <v>37.615452</v>
       </c>
       <c r="G216" t="n">
-        <v>55.755302</v>
+        <v>55.720489</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>268305688 RUB</t>
+          <t>1700000000 RUB</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -10808,12 +10808,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44404</t>
+          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46324</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Продажа офиса 144 м², 12 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 962 м², 6 этаж - LUCKY</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -10832,14 +10832,14 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>37.530354</v>
+        <v>37.557772</v>
       </c>
       <c r="G217" t="n">
-        <v>55.755302</v>
+        <v>55.762167</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>89489715 RUB</t>
+          <t>625300000 RUB</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10856,12 +10856,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44406</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46375</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 859 м², 35 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 341 м², 23 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -10880,14 +10880,14 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>37.530354</v>
+        <v>37.682592</v>
       </c>
       <c r="G218" t="n">
-        <v>55.755302</v>
+        <v>55.746405</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1171422000 RUB</t>
+          <t>128212500 RUB</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10904,12 +10904,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44450</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46376</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Продажа офиса 568 м², 51 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 358 м², 24 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10928,14 +10928,14 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>37.530354</v>
+        <v>37.682592</v>
       </c>
       <c r="G219" t="n">
-        <v>55.755302</v>
+        <v>55.746405</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>373241700 RUB</t>
+          <t>134400000 RUB</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10952,12 +10952,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44451</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46377</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Продажа офиса 332 м², 51 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 841 м², 1 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -10976,14 +10976,14 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>37.530354</v>
+        <v>37.682592</v>
       </c>
       <c r="G220" t="n">
-        <v>55.755302</v>
+        <v>55.746405</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>218715300 RUB</t>
+          <t>547170000 RUB</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11000,12 +11000,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/icity-os44452</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46378</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Продажа офиса 436 м², 51 этаж - iCITY (Space)</t>
+          <t>Продажа офиса 1 275 м², 2 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Пресненский, Шмитовский проезд, д. 37</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11024,14 +11024,14 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>37.530354</v>
+        <v>37.682592</v>
       </c>
       <c r="G221" t="n">
-        <v>55.755302</v>
+        <v>55.746405</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>286583400 RUB</t>
+          <t>420915000 RUB</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11048,12 +11048,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os44902</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46379</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 666 м², 12 этаж - Технопарк YES</t>
+          <t>Продажа офиса 2 043 м², 3 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11072,14 +11072,14 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>37.665167</v>
+        <v>37.682592</v>
       </c>
       <c r="G222" t="n">
-        <v>55.694063</v>
+        <v>55.746405</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>693160000 RUB</t>
+          <t>653984000 RUB</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -11096,12 +11096,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/eko-os44908</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46380</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Продажа офиса 12 400 м², 1-13 этаж - ЭКО</t>
+          <t>Продажа офиса 779 м², 4 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11120,14 +11120,14 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>37.731578</v>
+        <v>37.682592</v>
       </c>
       <c r="G223" t="n">
-        <v>55.78875</v>
+        <v>55.746405</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>12400000 USD</t>
+          <t>253467500 RUB</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -11144,12 +11144,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45411</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46381</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Продажа офиса 496 м², 4 этаж - СУПЕРМЕТАЛЛ</t>
+          <t>Продажа офиса 652 м², 5 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -11168,14 +11168,14 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>37.683565</v>
+        <v>37.682592</v>
       </c>
       <c r="G224" t="n">
-        <v>55.763238</v>
+        <v>55.746405</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>148800000 RUB</t>
+          <t>212095000 RUB</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -11192,12 +11192,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45412</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46383</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Продажа офиса 600 м², 5 этаж - СУПЕРМЕТАЛЛ</t>
+          <t>Продажа офиса 728 м², 6 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11216,14 +11216,14 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>37.683565</v>
+        <v>37.682592</v>
       </c>
       <c r="G225" t="n">
-        <v>55.763238</v>
+        <v>55.746405</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>180000000 RUB</t>
+          <t>240240000 RUB</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -11240,12 +11240,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/baumanskaya-2-ya-ulitsa-d-9-23-os45413</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46384</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Продажа офиса 300 м², 7 этаж - СУПЕРМЕТАЛЛ</t>
+          <t>Продажа офиса 736 м², 7 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Басманный (ТТК Восток), Басманный, ул. Бауманская 2-я, д. 9/23</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -11264,14 +11264,14 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>37.683565</v>
+        <v>37.682592</v>
       </c>
       <c r="G226" t="n">
-        <v>55.763238</v>
+        <v>55.746405</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>81000000 RUB</t>
+          <t>250274000 RUB</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -11288,12 +11288,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bukhvostova-1-ya-ulitsa-d-12-11-os45414</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46385</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Продажа офиса 4 160 м², -1-4 этаж - Бухвостов</t>
+          <t>Продажа офиса 766 м², 8 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>ЧТК Север, Преображенское, 2-я Бухвостова ул., д. 5</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -11312,14 +11312,14 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>37.705742</v>
+        <v>37.682592</v>
       </c>
       <c r="G227" t="n">
-        <v>55.798611</v>
+        <v>55.746405</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>260508000 RUB</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -11336,12 +11336,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45813</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46386</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 478 м², 1-4 этаж - ОСЗ на Алексея Свиридова</t>
+          <t>Продажа офиса 773 м², 9 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -11360,14 +11360,14 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>37.45495</v>
+        <v>37.682592</v>
       </c>
       <c r="G228" t="n">
-        <v>55.726864</v>
+        <v>55.746405</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>599676000 RUB</t>
+          <t>266788500 RUB</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -11384,12 +11384,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45814</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46387</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Продажа офиса 622 м², 1-2 этаж - ОСЗ на Алексея Свиридова</t>
+          <t>Продажа офиса 766 м², 10 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11408,14 +11408,14 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>37.45495</v>
+        <v>37.682592</v>
       </c>
       <c r="G229" t="n">
-        <v>55.726864</v>
+        <v>55.746405</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>150524000 RUB</t>
+          <t>264339000 RUB</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -11432,12 +11432,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os46095</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46388</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 145 м², 2 этаж - AHEAD</t>
+          <t>Продажа офиса 765 м², 11 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11456,14 +11456,14 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>37.492385</v>
+        <v>37.682592</v>
       </c>
       <c r="G230" t="n">
-        <v>55.733925</v>
+        <v>55.746405</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>267925000 RUB</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -11480,12 +11480,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tekhnopark-yes-os46157</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46389</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 215 м², 6 этаж - Технопарк YES</t>
+          <t>Продажа офиса 776 м², 12 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ЧТК Юг, Даниловский, Андропова пр-кт, влд 10</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -11504,14 +11504,14 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>37.665167</v>
+        <v>37.682592</v>
       </c>
       <c r="G231" t="n">
-        <v>55.694063</v>
+        <v>55.746405</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>492288928 RUB</t>
+          <t>271635000 RUB</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -11528,12 +11528,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/mytnaya-ul-d-46-str-5-os46262</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46400</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Продажа офиса 5 981 м², 1-8 этаж - Мытная ул., д. 46, стр. 5</t>
+          <t>Продажа офиса 768 м², 13 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Якиманка, Мытная ул., д. 46, стр. 5</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -11552,14 +11552,14 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>37.615452</v>
+        <v>37.682592</v>
       </c>
       <c r="G232" t="n">
-        <v>55.720489</v>
+        <v>55.746405</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>1700000000 RUB</t>
+          <t>269045000 RUB</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -11576,12 +11576,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46324</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46401</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Продажа офиса 962 м², 6 этаж - LUCKY</t>
+          <t>Продажа офиса 720 м², 15 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
+          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11600,14 +11600,14 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>37.557772</v>
+        <v>37.682592</v>
       </c>
       <c r="G233" t="n">
-        <v>55.762167</v>
+        <v>55.746405</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>625300000 RUB</t>
+          <t>255777500 RUB</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -11624,12 +11624,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46375</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46402</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Продажа офиса 341 м², 23 этаж - Голден Гейт</t>
+          <t>Продажа офиса 755 м², 16 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>128212500 RUB</t>
+          <t>272124000 RUB</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -11672,12 +11672,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46376</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46403</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Продажа офиса 358 м², 24 этаж - Голден Гейт</t>
+          <t>Продажа офиса 758 м², 17 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>134400000 RUB</t>
+          <t>272880000 RUB</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -11720,12 +11720,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46377</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46404</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Продажа офиса 841 м², 1 этаж - Голден Гейт</t>
+          <t>Продажа офиса 754 м², 18 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>547170000 RUB</t>
+          <t>271476000 RUB</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -11768,12 +11768,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46378</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46406</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 275 м², 2 этаж - Голден Гейт</t>
+          <t>Продажа офиса 750 м², 19 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>420915000 RUB</t>
+          <t>273932500 RUB</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -11816,12 +11816,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46379</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46407</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 043 м², 3 этаж - Голден Гейт</t>
+          <t>Продажа офиса 745 м², 20 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>653984000 RUB</t>
+          <t>272144000 RUB</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -11864,12 +11864,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46380</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46408</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Продажа офиса 779 м², 4 этаж - Голден Гейт</t>
+          <t>Продажа офиса 572 м², 21 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>253467500 RUB</t>
+          <t>208816500 RUB</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11912,12 +11912,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46381</t>
+          <t>https://kf.expert/office/pomeschenie/bannyj-os46409</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Продажа офиса 652 м², 5 этаж - Голден Гейт</t>
+          <t>Продажа офиса 996 м², 22 этаж - Голден Гейт</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>212095000 RUB</t>
+          <t>368631000 RUB</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -11960,12 +11960,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46383</t>
+          <t>https://kf.expert/office/pomeschenie/tverskaya-ulitsa-d-12-os46443</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Продажа офиса 728 м², 6 этаж - Голден Гейт</t>
+          <t>Продажа офиса 685 м², 3 этаж - Тверская улица,12</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Центральный деловой район, Тверской, Тверская улица, 12</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -11984,14 +11984,14 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>37.682592</v>
+        <v>37.60766</v>
       </c>
       <c r="G241" t="n">
-        <v>55.746405</v>
+        <v>55.763936</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>240240000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -12008,12 +12008,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46384</t>
+          <t>https://kf.expert/office/pomeschenie/mosalarko-plaza-one-os46444</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Продажа офиса 736 м², 7 этаж - Голден Гейт</t>
+          <t>Продажа офиса 7 759 м², 1-7 этаж - Mosalarko Plaza One</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Таганский (ТТК Восток), Таганский, Марксистская улица, 16</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -12032,14 +12032,14 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>37.682592</v>
+        <v>37.662012</v>
       </c>
       <c r="G242" t="n">
-        <v>55.746405</v>
+        <v>55.737602</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>250274000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -12056,12 +12056,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46385</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47100</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Продажа офиса 766 м², 8 этаж - Голден Гейт</t>
+          <t>Продажа офиса 271 м², 1 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -12080,14 +12080,14 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>37.682592</v>
+        <v>37.492385</v>
       </c>
       <c r="G243" t="n">
-        <v>55.746405</v>
+        <v>55.733925</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>260508000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -12104,12 +12104,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46386</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47101</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Продажа офиса 773 м², 9 этаж - Голден Гейт</t>
+          <t>Продажа офиса 2 145 м², 3 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -12128,14 +12128,14 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>37.682592</v>
+        <v>37.492385</v>
       </c>
       <c r="G244" t="n">
-        <v>55.746405</v>
+        <v>55.733925</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>266788500 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -12152,12 +12152,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46387</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47102</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Продажа офиса 766 м², 10 этаж - Голден Гейт</t>
+          <t>Продажа офиса 2 145 м², 4 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -12176,14 +12176,14 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>37.682592</v>
+        <v>37.492385</v>
       </c>
       <c r="G245" t="n">
-        <v>55.746405</v>
+        <v>55.733925</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>264339000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -12200,12 +12200,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46388</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47103</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Продажа офиса 765 м², 11 этаж - Голден Гейт</t>
+          <t>Продажа офиса 2 145 м², 5 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -12224,14 +12224,14 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>37.682592</v>
+        <v>37.492385</v>
       </c>
       <c r="G246" t="n">
-        <v>55.746405</v>
+        <v>55.733925</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>267925000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -12248,12 +12248,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46389</t>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47104</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Продажа офиса 776 м², 12 этаж - Голден Гейт</t>
+          <t>Продажа офиса 1 826 м², 6 этаж - AHEAD</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -12272,14 +12272,14 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>37.682592</v>
+        <v>37.492385</v>
       </c>
       <c r="G247" t="n">
-        <v>55.746405</v>
+        <v>55.733925</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>271635000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -12296,12 +12296,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46400</t>
+          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-2-os47150</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Продажа офиса 768 м², 13 этаж - Голден Гейт</t>
+          <t>Продаётся офис 4 286 м², 1-5 этаж - LUCKY</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -12320,14 +12320,14 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>37.682592</v>
+        <v>37.556919</v>
       </c>
       <c r="G248" t="n">
-        <v>55.746405</v>
+        <v>55.762812</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>269045000 RUB</t>
+          <t>1850000000 RUB</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -12344,12 +12344,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46401</t>
+          <t>https://kf.expert/office/pomeschenie/bernikov-os47177</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Продажа офиса 720 м², 15 этаж - Голден Гейт</t>
+          <t>Продаётся офис 15 927 м², 1-11 этаж - Берников</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>СК Восток, Таганский, ул. Николоямская, д. 11, стр 2</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -12368,14 +12368,14 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>37.682592</v>
+        <v>37.651202</v>
       </c>
       <c r="G249" t="n">
-        <v>55.746405</v>
+        <v>55.748248</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>255777500 RUB</t>
+          <t>4099999999 RUB</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -12392,12 +12392,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46402</t>
+          <t>https://kf.expert/office/pomeschenie/barrikadnaya-ulitsa-d-8-5-os47195</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Продажа офиса 755 м², 16 этаж - Голден Гейт</t>
+          <t>Продаётся офис 4 969 м², -1-5 этаж - Баррикадная 8 стр.  5А</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Пресненский (ТТК Запад), Пресненский, Баррикадная улица, 8</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12416,14 +12416,14 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>37.682592</v>
+        <v>37.581966</v>
       </c>
       <c r="G250" t="n">
-        <v>55.746405</v>
+        <v>55.76183</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>272124000 RUB</t>
+          <t>800000000 RUB</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -12440,12 +12440,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46403</t>
+          <t>https://kf.expert/office/pomeschenie/ostankino-korpus-3-os47593</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Продажа офиса 758 м², 17 этаж - Голден Гейт</t>
+          <t>Офис 1 491 м², 11 этаж - Останкино (Корпус 3)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Бутырский, Огородный проезд, д. 16/1, стр. 3</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -12464,14 +12464,14 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>37.682592</v>
+        <v>37.601286</v>
       </c>
       <c r="G251" t="n">
-        <v>55.746405</v>
+        <v>55.816065</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>272880000 RUB</t>
+          <t>375000000 RUB</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -12488,12 +12488,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46404</t>
+          <t>https://kf.expert/office/pomeschenie/fili-center-os47641</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Продажа офиса 754 м², 18 этаж - Голден Гейт</t>
+          <t>Офис 25 749 м², -1-10 этаж - Fili Center</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Филёвский Парк, пр-д Промышленный, д. 5</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -12512,14 +12512,14 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>37.682592</v>
+        <v>37.510193</v>
       </c>
       <c r="G252" t="n">
-        <v>55.746405</v>
+        <v>55.741226</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>271476000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -12536,12 +12536,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46406</t>
+          <t>https://kf.expert/office/pomeschenie/dolgorukovskaya-ulitsa-d-34-str-2-os47692</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Продажа офиса 750 м², 19 этаж - Голден Гейт</t>
+          <t>Офис 2 196 м², 1-4 этаж - Долгоруковская 34 стр. 2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>СК Север, Тверской, Долгоруковская улица, 34, стр. 2</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12560,14 +12560,14 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>37.682592</v>
+        <v>37.604237</v>
       </c>
       <c r="G253" t="n">
-        <v>55.746405</v>
+        <v>55.777275</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>273932500 RUB</t>
+          <t>571142000 RUB</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -12584,12 +12584,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46407</t>
+          <t>https://kf.expert/office/pomeschenie/yauza-tauer-os47693</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Продажа офиса 745 м², 20 этаж - Голден Гейт</t>
+          <t>Офис 1 308 м², 7-8 этаж - Яуза Тауэр</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Басманный (ТТК Восток), Басманный, Радио улица, 24А, стр. 1</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -12608,14 +12608,14 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>37.682592</v>
+        <v>37.683601</v>
       </c>
       <c r="G254" t="n">
-        <v>55.746405</v>
+        <v>55.762592</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>272144000 RUB</t>
+          <t>196290000 RUB</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -12632,12 +12632,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46408</t>
+          <t>https://kf.expert/office/pomeschenie/dubininskaya-43-45-os47737</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Продажа офиса 572 м², 21 этаж - Голден Гейт</t>
+          <t>Офис 4 229 м², 1-5 этаж - Дубининская 43-45</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>Замоскворечье, Дубининская ул., д. 43</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -12656,14 +12656,14 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>37.682592</v>
+        <v>37.636832</v>
       </c>
       <c r="G255" t="n">
-        <v>55.746405</v>
+        <v>55.723886</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>208816500 RUB</t>
+          <t>899000000 RUB</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -12680,12 +12680,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bannyj-os46409</t>
+          <t>https://kf.expert/office/pomeschenie/grafskij-os6830</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Продажа офиса 996 м², 22 этаж - Голден Гейт</t>
+          <t>Продажа офиса 2 607 м², 1-3 этаж - Графский</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Лефортово (ТТК Восток), Таганский, Энтузиастов бульвар, 2</t>
+          <t>ЧТК Север, Алексеевский, Графский переулок, 12А, стр. 1</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -12704,14 +12704,14 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>37.682592</v>
+        <v>37.640956</v>
       </c>
       <c r="G256" t="n">
-        <v>55.746405</v>
+        <v>55.802791</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>368631000 RUB</t>
+          <t>394960500 RUB</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -12728,12 +12728,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/svyatogor-2-os46442</t>
+          <t>https://kf.expert/office/pomeschenie/eko-os7587</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Продажа офиса 11 500 м², 1-9 этаж - Святогор 2</t>
+          <t>Офис 914 м², 6 этаж - ЭКО</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>СК Юг (Замоскворечье), Замоскворечье, Летниковская улица, 10, стр. 2</t>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12752,14 +12752,14 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>37.643249</v>
+        <v>37.731578</v>
       </c>
       <c r="G257" t="n">
-        <v>55.72563</v>
+        <v>55.78875</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2875000000 RUB</t>
+          <t>82260000 RUB</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -12776,12 +12776,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/tverskaya-ulitsa-d-12-os46443</t>
+          <t>https://kf.expert/office/pomeschenie/magistralnaya-3-ya-ulitsa-os7697</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Продажа офиса 685 м², 3 этаж - Тверская улица,12</t>
+          <t>Продаётся офис 27 271 м², 3-11 этаж - Orbital</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Центральный деловой район, Тверской, Тверская улица, 12</t>
+          <t>ЧТК Восток, Хорошёвский, ул. 3-я Магистральная, влд 10</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -12800,14 +12800,14 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>37.60766</v>
+        <v>37.518532</v>
       </c>
       <c r="G258" t="n">
-        <v>55.763936</v>
+        <v>55.765905</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>8181300000 RUB</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -12824,12 +12824,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/mosalarko-plaza-one-os46444</t>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8734</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Продажа офиса 7 759 м², 1-7 этаж - Mosalarko Plaza One</t>
+          <t>Продаётся офис 2 965 м², 18 этаж - Империя Тауэр</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Таганский (ТТК Восток), Таганский, Марксистская улица, 16</t>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -12848,14 +12848,14 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>37.662012</v>
+        <v>37.540397</v>
       </c>
       <c r="G259" t="n">
-        <v>55.737602</v>
+        <v>55.748071</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1499848215 RUB</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -12872,12 +12872,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47100</t>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8738</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Продажа офиса 271 м², 1 этаж - AHEAD</t>
+          <t>Продажа офиса 196 м², 47 этаж - Империя Тауэр</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -12896,14 +12896,14 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>37.492385</v>
+        <v>37.540397</v>
       </c>
       <c r="G260" t="n">
-        <v>55.733925</v>
+        <v>55.748071</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1474500 USD</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -12920,12 +12920,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47101</t>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8744</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 145 м², 3 этаж - AHEAD</t>
+          <t>Продаётся офис 2 930 м², 8 этаж - Империя Тауэр</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -12944,14 +12944,14 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>37.492385</v>
+        <v>37.540397</v>
       </c>
       <c r="G261" t="n">
-        <v>55.733925</v>
+        <v>55.748071</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1199999080 RUB</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -12968,12 +12968,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47102</t>
+          <t>https://kf.expert/office/pomeschenie/raevskogo-ul-d-4-os9344</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 145 м², 4 этаж - AHEAD</t>
+          <t>Продаётся офис 8 130 м², -1-5 этаж - Раевского ул, д. 4/д. 4, стр. 1А</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Киевский (ТТК Запад), Дорогомилово, Раевского ул., д. 4</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12992,14 +12992,14 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>37.492385</v>
+        <v>37.551701</v>
       </c>
       <c r="G262" t="n">
-        <v>55.733925</v>
+        <v>55.74488</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3790000000 RUB</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -13016,12 +13016,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47103</t>
+          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47791</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 145 м², 5 этаж - AHEAD</t>
+          <t>Офис 19 000 м², 1-13 этаж - Stone Ходынка</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -13040,10 +13040,10 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>37.492385</v>
+        <v>37.535635</v>
       </c>
       <c r="G263" t="n">
-        <v>55.733925</v>
+        <v>55.787945</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>19_10_2023</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13064,12 +13064,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47104</t>
+          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47792</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Продажа офиса 1 826 м², 6 этаж - AHEAD</t>
+          <t>Продаётся офис 43 000 м², 1-23 этаж - Stone Ходынка</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -13088,10 +13088,10 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>37.492385</v>
+        <v>37.535635</v>
       </c>
       <c r="G264" t="n">
-        <v>55.733925</v>
+        <v>55.787945</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>19_10_2023</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13112,12 +13112,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-2-os47150</t>
+          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47793</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Продаётся офис 4 286 м², 1-5 этаж - LUCKY</t>
+          <t>Продаётся офис 27 000 м², 1-18 этаж - Stone Ходынка</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
+          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -13136,19 +13136,19 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>37.556919</v>
+        <v>37.535635</v>
       </c>
       <c r="G265" t="n">
-        <v>55.762812</v>
+        <v>55.787945</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>1850000000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>19_10_2023</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13160,12 +13160,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/bernikov-os47177</t>
+          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os14442</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Продаётся офис 15 927 м², 1-11 этаж - Берников</t>
+          <t>Продаётся офис 35 030 м², 2-20 этаж - СЛАВА | SLAVA</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>СК Восток, Таганский, ул. Николоямская, д. 11, стр 2</t>
+          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -13184,19 +13184,19 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>37.651202</v>
+        <v>37.583869</v>
       </c>
       <c r="G266" t="n">
-        <v>55.748248</v>
+        <v>55.780017</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>4099999999 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>20_10_2023</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/barrikadnaya-ulitsa-d-8-5-os47195</t>
+          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os45304</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Продаётся офис 4 969 м², -1-5 этаж - Баррикадная 8 стр.  5А</t>
+          <t>Продажа офиса 33 530 м², 2-20 этаж - СЛАВА | SLAVA</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Пресненский (ТТК Запад), Пресненский, Баррикадная улица, 8</t>
+          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -13232,19 +13232,19 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>37.581966</v>
+        <v>37.583842</v>
       </c>
       <c r="G267" t="n">
-        <v>55.76183</v>
+        <v>55.779957</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>800000000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>20_10_2023</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13256,12 +13256,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/ostankino-korpus-3-os47593</t>
+          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os45305</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Офис 1 491 м², 11 этаж - Останкино (Корпус 3)</t>
+          <t>Продажа офиса 32 950 м², 2-20 этаж - СЛАВА | SLAVA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Бутырский, Огородный проезд, д. 16/1, стр. 3</t>
+          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -13280,19 +13280,19 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>37.601286</v>
+        <v>37.583842</v>
       </c>
       <c r="G268" t="n">
-        <v>55.816065</v>
+        <v>55.779957</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>375000000 RUB</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>20_10_2023</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13304,12 +13304,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/fili-center-os47641</t>
+          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46320</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Офис 25 749 м², -1-10 этаж - Fili Center</t>
+          <t>Продажа офиса 470 м², 2 этаж - LUCKY</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Филёвский Парк, пр-д Промышленный, д. 5</t>
+          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13328,19 +13328,19 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>37.510193</v>
+        <v>37.557772</v>
       </c>
       <c r="G269" t="n">
-        <v>55.741226</v>
+        <v>55.762167</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>338400000 RUB</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>26_10_2023</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13352,12 +13352,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dolgorukovskaya-ulitsa-d-34-str-2-os47692</t>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os26440</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Офис 2 196 м², 1-4 этаж - Долгоруковская 34 стр. 2</t>
+          <t>Продажа офиса 2 138 м², 60 этаж - Федерация</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>СК Север, Тверской, Долгоруковская улица, 34, стр. 2</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13376,19 +13376,19 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>37.604237</v>
+        <v>37.537106</v>
       </c>
       <c r="G270" t="n">
-        <v>55.777275</v>
+        <v>55.749938</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>571142000 RUB</t>
+          <t>1600000000 RUB</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>3_11_2023</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13400,12 +13400,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/yauza-tauer-os47693</t>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os32628</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Офис 1 308 м², 7-8 этаж - Яуза Тауэр</t>
+          <t>Офис 2 273 м², 55 этаж - Федерация</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Басманный (ТТК Восток), Басманный, Радио улица, 24А, стр. 1</t>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13424,19 +13424,19 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>37.683601</v>
+        <v>37.537106</v>
       </c>
       <c r="G271" t="n">
-        <v>55.762592</v>
+        <v>55.749938</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>196290000 RUB</t>
+          <t>1800000000 RUB</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>3_11_2023</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13448,12 +13448,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/dubininskaya-43-45-os47737</t>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os31755</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Офис 4 229 м², 1-5 этаж - Дубининская 43-45</t>
+          <t>Офис 739 м², 12 этаж - Империя Тауэр</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Замоскворечье, Дубининская ул., д. 43</t>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13472,19 +13472,19 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>37.636832</v>
+        <v>37.540397</v>
       </c>
       <c r="G272" t="n">
-        <v>55.723886</v>
+        <v>55.748071</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>899000000 RUB</t>
+          <t>517300000 RUB</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>4_11_2023</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13496,12 +13496,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/grafskij-os6830</t>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-a-os42994</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Продажа офиса 2 607 м², 1-3 этаж - Графский</t>
+          <t>Продажа офиса 14 000 м², -2-9 этаж - Stone towers</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>ЧТК Север, Алексеевский, Графский переулок, 12А, стр. 1</t>
+          <t>Беговой, проезд Бумажный, д. 19</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13520,19 +13520,19 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>37.640956</v>
+        <v>37.585907</v>
       </c>
       <c r="G273" t="n">
-        <v>55.802791</v>
+        <v>55.789864</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>394960500 RUB</t>
+          <t>6120000000 RUB</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>15_11_2023</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13544,12 +13544,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://kf.expert/office/pomeschenie/eko-os7587</t>
+          <t>https://kf.expert/office/pomeschenie/privolnaya-ulitsa-8-os25556</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Офис 914 м², 6 этаж - ЭКО</t>
+          <t>Продажа офиса 6 146 м², -1-4 этаж - Привольная улица, 8</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+          <t>МКАД Восток, Выхино-Жулебино, Привольная улица, 8</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -13568,746 +13568,22 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>37.731578</v>
+        <v>37.838217</v>
       </c>
       <c r="G274" t="n">
-        <v>55.78875</v>
+        <v>55.701516</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>82260000 RUB</t>
+          <t>420000000 RUB</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>16_10_2023</t>
+          <t>17_11_2023</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/magistralnaya-3-ya-ulitsa-os7697</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Продаётся офис 27 271 м², 3-11 этаж - Orbital</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>ЧТК Восток, Хорошёвский, ул. 3-я Магистральная, влд 10</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F275" t="n">
-        <v>37.518532</v>
-      </c>
-      <c r="G275" t="n">
-        <v>55.765905</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>8181300000 RUB</t>
-        </is>
-      </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>16_10_2023</t>
-        </is>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8734</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Продаётся офис 2 965 м², 18 этаж - Империя Тауэр</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F276" t="n">
-        <v>37.540397</v>
-      </c>
-      <c r="G276" t="n">
-        <v>55.748071</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>1499848215 RUB</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>16_10_2023</t>
-        </is>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8738</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Продажа офиса 196 м², 47 этаж - Империя Тауэр</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F277" t="n">
-        <v>37.540397</v>
-      </c>
-      <c r="G277" t="n">
-        <v>55.748071</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>1474500 USD</t>
-        </is>
-      </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>16_10_2023</t>
-        </is>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8744</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Продаётся офис 2 930 м², 8 этаж - Империя Тауэр</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F278" t="n">
-        <v>37.540397</v>
-      </c>
-      <c r="G278" t="n">
-        <v>55.748071</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>1199999080 RUB</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>16_10_2023</t>
-        </is>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/raevskogo-ul-d-4-os9344</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Продаётся офис 8 130 м², -1-5 этаж - Раевского ул, д. 4/д. 4, стр. 1А</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Киевский (ТТК Запад), Дорогомилово, Раевского ул., д. 4</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F279" t="n">
-        <v>37.551701</v>
-      </c>
-      <c r="G279" t="n">
-        <v>55.74488</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>3790000000 RUB</t>
-        </is>
-      </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>16_10_2023</t>
-        </is>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47791</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Офис 19 000 м², 1-13 этаж - Stone Ходынка</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F280" t="n">
-        <v>37.535635</v>
-      </c>
-      <c r="G280" t="n">
-        <v>55.787945</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>19_10_2023</t>
-        </is>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47792</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Продаётся офис 43 000 м², 1-23 этаж - Stone Ходынка</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F281" t="n">
-        <v>37.535635</v>
-      </c>
-      <c r="G281" t="n">
-        <v>55.787945</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>19_10_2023</t>
-        </is>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/stone-khodynka-os47793</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Продаётся офис 27 000 м², 1-18 этаж - Stone Ходынка</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Хорошёвский, Ходынский б-р, д. 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F282" t="n">
-        <v>37.535635</v>
-      </c>
-      <c r="G282" t="n">
-        <v>55.787945</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>19_10_2023</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os14442</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Продаётся офис 35 030 м², 2-20 этаж - СЛАВА | SLAVA</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F283" t="n">
-        <v>37.583869</v>
-      </c>
-      <c r="G283" t="n">
-        <v>55.780017</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>20_10_2023</t>
-        </is>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os45304</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Продажа офиса 33 530 м², 2-20 этаж - СЛАВА | SLAVA</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F284" t="n">
-        <v>37.583842</v>
-      </c>
-      <c r="G284" t="n">
-        <v>55.779957</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>20_10_2023</t>
-        </is>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/yamskogo-polya-1-ya-ulitsa-d-10-os45305</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Продажа офиса 32 950 м², 2-20 этаж - СЛАВА | SLAVA</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Тверской-Новослободский (ТТК Север), Беговой, 1-я Ямского Поля ул., вл. 8, 10</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F285" t="n">
-        <v>37.583842</v>
-      </c>
-      <c r="G285" t="n">
-        <v>55.779957</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>20_10_2023</t>
-        </is>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46320</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Продажа офиса 470 м², 2 этаж - LUCKY</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F286" t="n">
-        <v>37.557772</v>
-      </c>
-      <c r="G286" t="n">
-        <v>55.762167</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>338400000 RUB</t>
-        </is>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>26_10_2023</t>
-        </is>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os26440</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Продажа офиса 2 138 м², 60 этаж - Федерация</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F287" t="n">
-        <v>37.537106</v>
-      </c>
-      <c r="G287" t="n">
-        <v>55.749938</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1600000000 RUB</t>
-        </is>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>3_11_2023</t>
-        </is>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os32628</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Офис 2 273 м², 55 этаж - Федерация</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Пресненский, Пресненская наб., 12, Москва</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F288" t="n">
-        <v>37.537106</v>
-      </c>
-      <c r="G288" t="n">
-        <v>55.749938</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1800000000 RUB</t>
-        </is>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>3_11_2023</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Купить коммерсию</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os31755</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Офис 739 м², 12 этаж - Империя Тауэр</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Офисы</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>37.540397</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>55.748071</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>517300000 RUB</t>
-        </is>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>4_11_2023</t>
-        </is>
-      </c>
-      <c r="J289" t="inlineStr">
         <is>
           <t>Купить коммерсию</t>
         </is>
